--- a/Results/tic tac toe-best-rows.xlsx
+++ b/Results/tic tac toe-best-rows.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>min_supp</t>
   </si>
   <si>
     <t>min_conf</t>
+  </si>
+  <si>
+    <t>clf_rules_count</t>
   </si>
   <si>
     <t>accuracy</t>
@@ -383,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -414,13 +420,16 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -431,13 +440,16 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -448,13 +460,16 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -465,13 +480,16 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -482,13 +500,16 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -499,13 +520,16 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -516,13 +540,16 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>65</v>
       </c>
@@ -533,13 +560,16 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>66</v>
       </c>
@@ -550,13 +580,16 @@
         <v>40</v>
       </c>
       <c r="D10">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>67</v>
       </c>
@@ -567,13 +600,16 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>68</v>
       </c>
@@ -584,13 +620,16 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>69</v>
       </c>
@@ -601,13 +640,16 @@
         <v>40</v>
       </c>
       <c r="D13">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>70</v>
       </c>
@@ -618,13 +660,16 @@
         <v>40</v>
       </c>
       <c r="D14">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>71</v>
       </c>
@@ -635,13 +680,16 @@
         <v>40</v>
       </c>
       <c r="D15">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>130</v>
       </c>
@@ -652,13 +700,16 @@
         <v>60</v>
       </c>
       <c r="D16">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>131</v>
       </c>
@@ -669,13 +720,16 @@
         <v>60</v>
       </c>
       <c r="D17">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>132</v>
       </c>
@@ -686,13 +740,16 @@
         <v>60</v>
       </c>
       <c r="D18">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>133</v>
       </c>
@@ -703,13 +760,16 @@
         <v>60</v>
       </c>
       <c r="D19">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>134</v>
       </c>
@@ -720,13 +780,16 @@
         <v>60</v>
       </c>
       <c r="D20">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>135</v>
       </c>
@@ -737,13 +800,16 @@
         <v>60</v>
       </c>
       <c r="D21">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>136</v>
       </c>
@@ -754,13 +820,16 @@
         <v>60</v>
       </c>
       <c r="D22">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>195</v>
       </c>
@@ -771,13 +840,16 @@
         <v>80</v>
       </c>
       <c r="D23">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>196</v>
       </c>
@@ -788,13 +860,16 @@
         <v>80</v>
       </c>
       <c r="D24">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>197</v>
       </c>
@@ -805,13 +880,16 @@
         <v>80</v>
       </c>
       <c r="D25">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>198</v>
       </c>
@@ -822,13 +900,16 @@
         <v>80</v>
       </c>
       <c r="D26">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>199</v>
       </c>
@@ -839,13 +920,16 @@
         <v>80</v>
       </c>
       <c r="D27">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>200</v>
       </c>
@@ -856,13 +940,16 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>201</v>
       </c>
@@ -873,9 +960,12 @@
         <v>80</v>
       </c>
       <c r="D29">
-        <v>98.95999999999999</v>
+        <v>9</v>
       </c>
       <c r="E29">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
     </row>
